--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\AVLo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\AVLo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34F6676-9717-4CF6-BC73-AD27FC0CA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE0324-6536-42D8-B7FD-1FCDBFD8F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="550" windowWidth="15430" windowHeight="12970" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4462,12 +4462,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="85.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="85.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4719,7 +4719,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -5686,8 +5686,8 @@
         <v>44536.615934699075</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1">
+    <row r="19" spans="1:21" ht="15" thickBot="1"/>
+    <row r="20" spans="1:21" ht="15" thickBot="1">
       <c r="A20" s="121"/>
       <c r="B20" s="122" t="s">
         <v>426</v>
@@ -5696,7 +5696,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickTop="1">
+    <row r="21" spans="1:21" ht="15" thickTop="1">
       <c r="A21" s="124" t="s">
         <v>423</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0.48580480150021893</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+    <row r="23" spans="1:21" ht="15" thickBot="1">
       <c r="A23" s="96" t="s">
         <v>425</v>
       </c>
@@ -5753,13 +5753,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>342</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="118"/>
       <c r="B3" s="99"/>
       <c r="C3" s="146" t="s">
@@ -5799,7 +5799,7 @@
       <c r="G3" s="99"/>
       <c r="H3" s="100"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1">
+    <row r="4" spans="1:9" ht="15" thickTop="1">
       <c r="A4" s="115" t="s">
         <v>381</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+    <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="118"/>
       <c r="B7" s="119"/>
       <c r="C7" s="119"/>
@@ -5880,7 +5880,7 @@
       <c r="H7" s="120"/>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1">
+    <row r="8" spans="1:9" ht="15" thickTop="1">
       <c r="A8" s="115" t="s">
         <v>380</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="96"/>
       <c r="B9" s="117" t="s">
         <v>383</v>
@@ -5932,7 +5932,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25">
+    <row r="11" spans="1:9" ht="17.5">
       <c r="B11" s="87" t="s">
         <v>378</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1">
+    <row r="28" spans="1:17" ht="15" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>282</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1">
+    <row r="29" spans="1:17" ht="15" thickBot="1">
       <c r="A29" s="107"/>
       <c r="B29" s="108" t="s">
         <v>56</v>
@@ -6031,7 +6031,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickTop="1">
+    <row r="30" spans="1:17" ht="15" thickTop="1">
       <c r="A30" s="104" t="s">
         <v>59</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1">
+    <row r="31" spans="1:17" ht="15" thickBot="1">
       <c r="A31" s="101" t="s">
         <v>60</v>
       </c>
@@ -6086,15 +6086,17 @@
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45">
+    <row r="1" spans="1:37" ht="43.5">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -6808,148 +6810,112 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <f>'ships-psgr'!G3</f>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="4">
-        <f t="shared" si="0"/>
-        <v>337.61417769892506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -7113,14 +7079,16 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="45">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="43.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -7815,144 +7783,109 @@
         <v>6</v>
       </c>
       <c r="B6" s="44">
-        <f>'ships-frgt'!H22</f>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="2"/>
-        <v>65977.620430441006</v>
+        <v>1974.4736422180429</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -8114,10 +8047,10 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="39" spans="2:9">
@@ -8309,20 +8242,20 @@
       <selection activeCell="AC127" sqref="AC127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="32" customWidth="1"/>
-    <col min="3" max="4" width="1.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="32" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="32" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="10.140625" style="32" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="32" hidden="1" customWidth="1"/>
-    <col min="15" max="19" width="10.140625" style="32" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="11.42578125" style="32" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="32" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="32" customWidth="1"/>
+    <col min="3" max="4" width="1.54296875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" style="32" customWidth="1"/>
+    <col min="6" max="9" width="11.453125" style="32" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="10.1796875" style="32" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" style="32" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="32" hidden="1" customWidth="1"/>
+    <col min="15" max="19" width="10.1796875" style="32" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="11.453125" style="32" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" style="32" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" style="32" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
@@ -17171,13 +17104,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="11" width="9" style="9"/>
-    <col min="12" max="12" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="9"/>
-    <col min="14" max="14" width="16.28515625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -17322,23 +17255,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="9"/>
     <col min="9" max="9" width="11" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -18846,16 +18779,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1">
+    <row r="2" spans="2:9" ht="15" thickBot="1">
       <c r="B2" s="57" t="s">
         <v>271</v>
       </c>
@@ -18969,7 +18902,7 @@
         <v>254.87619047619049</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1">
+    <row r="8" spans="2:9" ht="15" thickBot="1">
       <c r="B8" s="30" t="s">
         <v>265</v>
       </c>
@@ -19006,7 +18939,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1">
+    <row r="13" spans="2:9" ht="15" thickBot="1">
       <c r="B13" s="57" t="s">
         <v>271</v>
       </c>
@@ -19156,7 +19089,7 @@
         <v>254.87619047619049</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1">
+    <row r="19" spans="2:9" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>263</v>
       </c>
@@ -20918,11 +20851,11 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20931,7 +20864,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="132" t="s">
         <v>446</v>
       </c>
@@ -21335,7 +21268,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="119" t="s">
         <v>468</v>
       </c>
@@ -21353,7 +21286,7 @@
         <v>25406.090909090908</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickTop="1">
+    <row r="22" spans="1:8" ht="15" thickTop="1">
       <c r="A22" s="131" t="s">
         <v>54</v>
       </c>
@@ -21387,7 +21320,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="139" t="s">
         <v>471</v>
       </c>
@@ -21529,27 +21462,27 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="4" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="8.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="4.453125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" style="9" customWidth="1"/>
     <col min="13" max="13" width="17" style="9" customWidth="1"/>
     <col min="14" max="14" width="18" style="9" customWidth="1"/>
     <col min="15" max="16" width="9" style="9"/>
-    <col min="17" max="17" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1">
+    <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="D2" s="62" t="s">
         <v>300</v>
       </c>
@@ -21820,7 +21753,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1">
+    <row r="16" spans="2:12" ht="15" thickBot="1">
       <c r="B16" s="69">
         <v>2018</v>
       </c>
@@ -22819,456 +22752,456 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="18" width="12.7109375" customWidth="1"/>
-    <col min="257" max="257" width="21.140625" customWidth="1"/>
-    <col min="258" max="258" width="12.5703125" customWidth="1"/>
-    <col min="259" max="263" width="12.7109375" customWidth="1"/>
-    <col min="264" max="264" width="12.85546875" customWidth="1"/>
-    <col min="265" max="266" width="12.7109375" customWidth="1"/>
-    <col min="267" max="270" width="12.85546875" customWidth="1"/>
-    <col min="271" max="274" width="12.7109375" customWidth="1"/>
-    <col min="513" max="513" width="21.140625" customWidth="1"/>
-    <col min="514" max="514" width="12.5703125" customWidth="1"/>
-    <col min="515" max="519" width="12.7109375" customWidth="1"/>
-    <col min="520" max="520" width="12.85546875" customWidth="1"/>
-    <col min="521" max="522" width="12.7109375" customWidth="1"/>
-    <col min="523" max="526" width="12.85546875" customWidth="1"/>
-    <col min="527" max="530" width="12.7109375" customWidth="1"/>
-    <col min="769" max="769" width="21.140625" customWidth="1"/>
-    <col min="770" max="770" width="12.5703125" customWidth="1"/>
-    <col min="771" max="775" width="12.7109375" customWidth="1"/>
-    <col min="776" max="776" width="12.85546875" customWidth="1"/>
-    <col min="777" max="778" width="12.7109375" customWidth="1"/>
-    <col min="779" max="782" width="12.85546875" customWidth="1"/>
-    <col min="783" max="786" width="12.7109375" customWidth="1"/>
-    <col min="1025" max="1025" width="21.140625" customWidth="1"/>
-    <col min="1026" max="1026" width="12.5703125" customWidth="1"/>
-    <col min="1027" max="1031" width="12.7109375" customWidth="1"/>
-    <col min="1032" max="1032" width="12.85546875" customWidth="1"/>
-    <col min="1033" max="1034" width="12.7109375" customWidth="1"/>
-    <col min="1035" max="1038" width="12.85546875" customWidth="1"/>
-    <col min="1039" max="1042" width="12.7109375" customWidth="1"/>
-    <col min="1281" max="1281" width="21.140625" customWidth="1"/>
-    <col min="1282" max="1282" width="12.5703125" customWidth="1"/>
-    <col min="1283" max="1287" width="12.7109375" customWidth="1"/>
-    <col min="1288" max="1288" width="12.85546875" customWidth="1"/>
-    <col min="1289" max="1290" width="12.7109375" customWidth="1"/>
-    <col min="1291" max="1294" width="12.85546875" customWidth="1"/>
-    <col min="1295" max="1298" width="12.7109375" customWidth="1"/>
-    <col min="1537" max="1537" width="21.140625" customWidth="1"/>
-    <col min="1538" max="1538" width="12.5703125" customWidth="1"/>
-    <col min="1539" max="1543" width="12.7109375" customWidth="1"/>
-    <col min="1544" max="1544" width="12.85546875" customWidth="1"/>
-    <col min="1545" max="1546" width="12.7109375" customWidth="1"/>
-    <col min="1547" max="1550" width="12.85546875" customWidth="1"/>
-    <col min="1551" max="1554" width="12.7109375" customWidth="1"/>
-    <col min="1793" max="1793" width="21.140625" customWidth="1"/>
-    <col min="1794" max="1794" width="12.5703125" customWidth="1"/>
-    <col min="1795" max="1799" width="12.7109375" customWidth="1"/>
-    <col min="1800" max="1800" width="12.85546875" customWidth="1"/>
-    <col min="1801" max="1802" width="12.7109375" customWidth="1"/>
-    <col min="1803" max="1806" width="12.85546875" customWidth="1"/>
-    <col min="1807" max="1810" width="12.7109375" customWidth="1"/>
-    <col min="2049" max="2049" width="21.140625" customWidth="1"/>
-    <col min="2050" max="2050" width="12.5703125" customWidth="1"/>
-    <col min="2051" max="2055" width="12.7109375" customWidth="1"/>
-    <col min="2056" max="2056" width="12.85546875" customWidth="1"/>
-    <col min="2057" max="2058" width="12.7109375" customWidth="1"/>
-    <col min="2059" max="2062" width="12.85546875" customWidth="1"/>
-    <col min="2063" max="2066" width="12.7109375" customWidth="1"/>
-    <col min="2305" max="2305" width="21.140625" customWidth="1"/>
-    <col min="2306" max="2306" width="12.5703125" customWidth="1"/>
-    <col min="2307" max="2311" width="12.7109375" customWidth="1"/>
-    <col min="2312" max="2312" width="12.85546875" customWidth="1"/>
-    <col min="2313" max="2314" width="12.7109375" customWidth="1"/>
-    <col min="2315" max="2318" width="12.85546875" customWidth="1"/>
-    <col min="2319" max="2322" width="12.7109375" customWidth="1"/>
-    <col min="2561" max="2561" width="21.140625" customWidth="1"/>
-    <col min="2562" max="2562" width="12.5703125" customWidth="1"/>
-    <col min="2563" max="2567" width="12.7109375" customWidth="1"/>
-    <col min="2568" max="2568" width="12.85546875" customWidth="1"/>
-    <col min="2569" max="2570" width="12.7109375" customWidth="1"/>
-    <col min="2571" max="2574" width="12.85546875" customWidth="1"/>
-    <col min="2575" max="2578" width="12.7109375" customWidth="1"/>
-    <col min="2817" max="2817" width="21.140625" customWidth="1"/>
-    <col min="2818" max="2818" width="12.5703125" customWidth="1"/>
-    <col min="2819" max="2823" width="12.7109375" customWidth="1"/>
-    <col min="2824" max="2824" width="12.85546875" customWidth="1"/>
-    <col min="2825" max="2826" width="12.7109375" customWidth="1"/>
-    <col min="2827" max="2830" width="12.85546875" customWidth="1"/>
-    <col min="2831" max="2834" width="12.7109375" customWidth="1"/>
-    <col min="3073" max="3073" width="21.140625" customWidth="1"/>
-    <col min="3074" max="3074" width="12.5703125" customWidth="1"/>
-    <col min="3075" max="3079" width="12.7109375" customWidth="1"/>
-    <col min="3080" max="3080" width="12.85546875" customWidth="1"/>
-    <col min="3081" max="3082" width="12.7109375" customWidth="1"/>
-    <col min="3083" max="3086" width="12.85546875" customWidth="1"/>
-    <col min="3087" max="3090" width="12.7109375" customWidth="1"/>
-    <col min="3329" max="3329" width="21.140625" customWidth="1"/>
-    <col min="3330" max="3330" width="12.5703125" customWidth="1"/>
-    <col min="3331" max="3335" width="12.7109375" customWidth="1"/>
-    <col min="3336" max="3336" width="12.85546875" customWidth="1"/>
-    <col min="3337" max="3338" width="12.7109375" customWidth="1"/>
-    <col min="3339" max="3342" width="12.85546875" customWidth="1"/>
-    <col min="3343" max="3346" width="12.7109375" customWidth="1"/>
-    <col min="3585" max="3585" width="21.140625" customWidth="1"/>
-    <col min="3586" max="3586" width="12.5703125" customWidth="1"/>
-    <col min="3587" max="3591" width="12.7109375" customWidth="1"/>
-    <col min="3592" max="3592" width="12.85546875" customWidth="1"/>
-    <col min="3593" max="3594" width="12.7109375" customWidth="1"/>
-    <col min="3595" max="3598" width="12.85546875" customWidth="1"/>
-    <col min="3599" max="3602" width="12.7109375" customWidth="1"/>
-    <col min="3841" max="3841" width="21.140625" customWidth="1"/>
-    <col min="3842" max="3842" width="12.5703125" customWidth="1"/>
-    <col min="3843" max="3847" width="12.7109375" customWidth="1"/>
-    <col min="3848" max="3848" width="12.85546875" customWidth="1"/>
-    <col min="3849" max="3850" width="12.7109375" customWidth="1"/>
-    <col min="3851" max="3854" width="12.85546875" customWidth="1"/>
-    <col min="3855" max="3858" width="12.7109375" customWidth="1"/>
-    <col min="4097" max="4097" width="21.140625" customWidth="1"/>
-    <col min="4098" max="4098" width="12.5703125" customWidth="1"/>
-    <col min="4099" max="4103" width="12.7109375" customWidth="1"/>
-    <col min="4104" max="4104" width="12.85546875" customWidth="1"/>
-    <col min="4105" max="4106" width="12.7109375" customWidth="1"/>
-    <col min="4107" max="4110" width="12.85546875" customWidth="1"/>
-    <col min="4111" max="4114" width="12.7109375" customWidth="1"/>
-    <col min="4353" max="4353" width="21.140625" customWidth="1"/>
-    <col min="4354" max="4354" width="12.5703125" customWidth="1"/>
-    <col min="4355" max="4359" width="12.7109375" customWidth="1"/>
-    <col min="4360" max="4360" width="12.85546875" customWidth="1"/>
-    <col min="4361" max="4362" width="12.7109375" customWidth="1"/>
-    <col min="4363" max="4366" width="12.85546875" customWidth="1"/>
-    <col min="4367" max="4370" width="12.7109375" customWidth="1"/>
-    <col min="4609" max="4609" width="21.140625" customWidth="1"/>
-    <col min="4610" max="4610" width="12.5703125" customWidth="1"/>
-    <col min="4611" max="4615" width="12.7109375" customWidth="1"/>
-    <col min="4616" max="4616" width="12.85546875" customWidth="1"/>
-    <col min="4617" max="4618" width="12.7109375" customWidth="1"/>
-    <col min="4619" max="4622" width="12.85546875" customWidth="1"/>
-    <col min="4623" max="4626" width="12.7109375" customWidth="1"/>
-    <col min="4865" max="4865" width="21.140625" customWidth="1"/>
-    <col min="4866" max="4866" width="12.5703125" customWidth="1"/>
-    <col min="4867" max="4871" width="12.7109375" customWidth="1"/>
-    <col min="4872" max="4872" width="12.85546875" customWidth="1"/>
-    <col min="4873" max="4874" width="12.7109375" customWidth="1"/>
-    <col min="4875" max="4878" width="12.85546875" customWidth="1"/>
-    <col min="4879" max="4882" width="12.7109375" customWidth="1"/>
-    <col min="5121" max="5121" width="21.140625" customWidth="1"/>
-    <col min="5122" max="5122" width="12.5703125" customWidth="1"/>
-    <col min="5123" max="5127" width="12.7109375" customWidth="1"/>
-    <col min="5128" max="5128" width="12.85546875" customWidth="1"/>
-    <col min="5129" max="5130" width="12.7109375" customWidth="1"/>
-    <col min="5131" max="5134" width="12.85546875" customWidth="1"/>
-    <col min="5135" max="5138" width="12.7109375" customWidth="1"/>
-    <col min="5377" max="5377" width="21.140625" customWidth="1"/>
-    <col min="5378" max="5378" width="12.5703125" customWidth="1"/>
-    <col min="5379" max="5383" width="12.7109375" customWidth="1"/>
-    <col min="5384" max="5384" width="12.85546875" customWidth="1"/>
-    <col min="5385" max="5386" width="12.7109375" customWidth="1"/>
-    <col min="5387" max="5390" width="12.85546875" customWidth="1"/>
-    <col min="5391" max="5394" width="12.7109375" customWidth="1"/>
-    <col min="5633" max="5633" width="21.140625" customWidth="1"/>
-    <col min="5634" max="5634" width="12.5703125" customWidth="1"/>
-    <col min="5635" max="5639" width="12.7109375" customWidth="1"/>
-    <col min="5640" max="5640" width="12.85546875" customWidth="1"/>
-    <col min="5641" max="5642" width="12.7109375" customWidth="1"/>
-    <col min="5643" max="5646" width="12.85546875" customWidth="1"/>
-    <col min="5647" max="5650" width="12.7109375" customWidth="1"/>
-    <col min="5889" max="5889" width="21.140625" customWidth="1"/>
-    <col min="5890" max="5890" width="12.5703125" customWidth="1"/>
-    <col min="5891" max="5895" width="12.7109375" customWidth="1"/>
-    <col min="5896" max="5896" width="12.85546875" customWidth="1"/>
-    <col min="5897" max="5898" width="12.7109375" customWidth="1"/>
-    <col min="5899" max="5902" width="12.85546875" customWidth="1"/>
-    <col min="5903" max="5906" width="12.7109375" customWidth="1"/>
-    <col min="6145" max="6145" width="21.140625" customWidth="1"/>
-    <col min="6146" max="6146" width="12.5703125" customWidth="1"/>
-    <col min="6147" max="6151" width="12.7109375" customWidth="1"/>
-    <col min="6152" max="6152" width="12.85546875" customWidth="1"/>
-    <col min="6153" max="6154" width="12.7109375" customWidth="1"/>
-    <col min="6155" max="6158" width="12.85546875" customWidth="1"/>
-    <col min="6159" max="6162" width="12.7109375" customWidth="1"/>
-    <col min="6401" max="6401" width="21.140625" customWidth="1"/>
-    <col min="6402" max="6402" width="12.5703125" customWidth="1"/>
-    <col min="6403" max="6407" width="12.7109375" customWidth="1"/>
-    <col min="6408" max="6408" width="12.85546875" customWidth="1"/>
-    <col min="6409" max="6410" width="12.7109375" customWidth="1"/>
-    <col min="6411" max="6414" width="12.85546875" customWidth="1"/>
-    <col min="6415" max="6418" width="12.7109375" customWidth="1"/>
-    <col min="6657" max="6657" width="21.140625" customWidth="1"/>
-    <col min="6658" max="6658" width="12.5703125" customWidth="1"/>
-    <col min="6659" max="6663" width="12.7109375" customWidth="1"/>
-    <col min="6664" max="6664" width="12.85546875" customWidth="1"/>
-    <col min="6665" max="6666" width="12.7109375" customWidth="1"/>
-    <col min="6667" max="6670" width="12.85546875" customWidth="1"/>
-    <col min="6671" max="6674" width="12.7109375" customWidth="1"/>
-    <col min="6913" max="6913" width="21.140625" customWidth="1"/>
-    <col min="6914" max="6914" width="12.5703125" customWidth="1"/>
-    <col min="6915" max="6919" width="12.7109375" customWidth="1"/>
-    <col min="6920" max="6920" width="12.85546875" customWidth="1"/>
-    <col min="6921" max="6922" width="12.7109375" customWidth="1"/>
-    <col min="6923" max="6926" width="12.85546875" customWidth="1"/>
-    <col min="6927" max="6930" width="12.7109375" customWidth="1"/>
-    <col min="7169" max="7169" width="21.140625" customWidth="1"/>
-    <col min="7170" max="7170" width="12.5703125" customWidth="1"/>
-    <col min="7171" max="7175" width="12.7109375" customWidth="1"/>
-    <col min="7176" max="7176" width="12.85546875" customWidth="1"/>
-    <col min="7177" max="7178" width="12.7109375" customWidth="1"/>
-    <col min="7179" max="7182" width="12.85546875" customWidth="1"/>
-    <col min="7183" max="7186" width="12.7109375" customWidth="1"/>
-    <col min="7425" max="7425" width="21.140625" customWidth="1"/>
-    <col min="7426" max="7426" width="12.5703125" customWidth="1"/>
-    <col min="7427" max="7431" width="12.7109375" customWidth="1"/>
-    <col min="7432" max="7432" width="12.85546875" customWidth="1"/>
-    <col min="7433" max="7434" width="12.7109375" customWidth="1"/>
-    <col min="7435" max="7438" width="12.85546875" customWidth="1"/>
-    <col min="7439" max="7442" width="12.7109375" customWidth="1"/>
-    <col min="7681" max="7681" width="21.140625" customWidth="1"/>
-    <col min="7682" max="7682" width="12.5703125" customWidth="1"/>
-    <col min="7683" max="7687" width="12.7109375" customWidth="1"/>
-    <col min="7688" max="7688" width="12.85546875" customWidth="1"/>
-    <col min="7689" max="7690" width="12.7109375" customWidth="1"/>
-    <col min="7691" max="7694" width="12.85546875" customWidth="1"/>
-    <col min="7695" max="7698" width="12.7109375" customWidth="1"/>
-    <col min="7937" max="7937" width="21.140625" customWidth="1"/>
-    <col min="7938" max="7938" width="12.5703125" customWidth="1"/>
-    <col min="7939" max="7943" width="12.7109375" customWidth="1"/>
-    <col min="7944" max="7944" width="12.85546875" customWidth="1"/>
-    <col min="7945" max="7946" width="12.7109375" customWidth="1"/>
-    <col min="7947" max="7950" width="12.85546875" customWidth="1"/>
-    <col min="7951" max="7954" width="12.7109375" customWidth="1"/>
-    <col min="8193" max="8193" width="21.140625" customWidth="1"/>
-    <col min="8194" max="8194" width="12.5703125" customWidth="1"/>
-    <col min="8195" max="8199" width="12.7109375" customWidth="1"/>
-    <col min="8200" max="8200" width="12.85546875" customWidth="1"/>
-    <col min="8201" max="8202" width="12.7109375" customWidth="1"/>
-    <col min="8203" max="8206" width="12.85546875" customWidth="1"/>
-    <col min="8207" max="8210" width="12.7109375" customWidth="1"/>
-    <col min="8449" max="8449" width="21.140625" customWidth="1"/>
-    <col min="8450" max="8450" width="12.5703125" customWidth="1"/>
-    <col min="8451" max="8455" width="12.7109375" customWidth="1"/>
-    <col min="8456" max="8456" width="12.85546875" customWidth="1"/>
-    <col min="8457" max="8458" width="12.7109375" customWidth="1"/>
-    <col min="8459" max="8462" width="12.85546875" customWidth="1"/>
-    <col min="8463" max="8466" width="12.7109375" customWidth="1"/>
-    <col min="8705" max="8705" width="21.140625" customWidth="1"/>
-    <col min="8706" max="8706" width="12.5703125" customWidth="1"/>
-    <col min="8707" max="8711" width="12.7109375" customWidth="1"/>
-    <col min="8712" max="8712" width="12.85546875" customWidth="1"/>
-    <col min="8713" max="8714" width="12.7109375" customWidth="1"/>
-    <col min="8715" max="8718" width="12.85546875" customWidth="1"/>
-    <col min="8719" max="8722" width="12.7109375" customWidth="1"/>
-    <col min="8961" max="8961" width="21.140625" customWidth="1"/>
-    <col min="8962" max="8962" width="12.5703125" customWidth="1"/>
-    <col min="8963" max="8967" width="12.7109375" customWidth="1"/>
-    <col min="8968" max="8968" width="12.85546875" customWidth="1"/>
-    <col min="8969" max="8970" width="12.7109375" customWidth="1"/>
-    <col min="8971" max="8974" width="12.85546875" customWidth="1"/>
-    <col min="8975" max="8978" width="12.7109375" customWidth="1"/>
-    <col min="9217" max="9217" width="21.140625" customWidth="1"/>
-    <col min="9218" max="9218" width="12.5703125" customWidth="1"/>
-    <col min="9219" max="9223" width="12.7109375" customWidth="1"/>
-    <col min="9224" max="9224" width="12.85546875" customWidth="1"/>
-    <col min="9225" max="9226" width="12.7109375" customWidth="1"/>
-    <col min="9227" max="9230" width="12.85546875" customWidth="1"/>
-    <col min="9231" max="9234" width="12.7109375" customWidth="1"/>
-    <col min="9473" max="9473" width="21.140625" customWidth="1"/>
-    <col min="9474" max="9474" width="12.5703125" customWidth="1"/>
-    <col min="9475" max="9479" width="12.7109375" customWidth="1"/>
-    <col min="9480" max="9480" width="12.85546875" customWidth="1"/>
-    <col min="9481" max="9482" width="12.7109375" customWidth="1"/>
-    <col min="9483" max="9486" width="12.85546875" customWidth="1"/>
-    <col min="9487" max="9490" width="12.7109375" customWidth="1"/>
-    <col min="9729" max="9729" width="21.140625" customWidth="1"/>
-    <col min="9730" max="9730" width="12.5703125" customWidth="1"/>
-    <col min="9731" max="9735" width="12.7109375" customWidth="1"/>
-    <col min="9736" max="9736" width="12.85546875" customWidth="1"/>
-    <col min="9737" max="9738" width="12.7109375" customWidth="1"/>
-    <col min="9739" max="9742" width="12.85546875" customWidth="1"/>
-    <col min="9743" max="9746" width="12.7109375" customWidth="1"/>
-    <col min="9985" max="9985" width="21.140625" customWidth="1"/>
-    <col min="9986" max="9986" width="12.5703125" customWidth="1"/>
-    <col min="9987" max="9991" width="12.7109375" customWidth="1"/>
-    <col min="9992" max="9992" width="12.85546875" customWidth="1"/>
-    <col min="9993" max="9994" width="12.7109375" customWidth="1"/>
-    <col min="9995" max="9998" width="12.85546875" customWidth="1"/>
-    <col min="9999" max="10002" width="12.7109375" customWidth="1"/>
-    <col min="10241" max="10241" width="21.140625" customWidth="1"/>
-    <col min="10242" max="10242" width="12.5703125" customWidth="1"/>
-    <col min="10243" max="10247" width="12.7109375" customWidth="1"/>
-    <col min="10248" max="10248" width="12.85546875" customWidth="1"/>
-    <col min="10249" max="10250" width="12.7109375" customWidth="1"/>
-    <col min="10251" max="10254" width="12.85546875" customWidth="1"/>
-    <col min="10255" max="10258" width="12.7109375" customWidth="1"/>
-    <col min="10497" max="10497" width="21.140625" customWidth="1"/>
-    <col min="10498" max="10498" width="12.5703125" customWidth="1"/>
-    <col min="10499" max="10503" width="12.7109375" customWidth="1"/>
-    <col min="10504" max="10504" width="12.85546875" customWidth="1"/>
-    <col min="10505" max="10506" width="12.7109375" customWidth="1"/>
-    <col min="10507" max="10510" width="12.85546875" customWidth="1"/>
-    <col min="10511" max="10514" width="12.7109375" customWidth="1"/>
-    <col min="10753" max="10753" width="21.140625" customWidth="1"/>
-    <col min="10754" max="10754" width="12.5703125" customWidth="1"/>
-    <col min="10755" max="10759" width="12.7109375" customWidth="1"/>
-    <col min="10760" max="10760" width="12.85546875" customWidth="1"/>
-    <col min="10761" max="10762" width="12.7109375" customWidth="1"/>
-    <col min="10763" max="10766" width="12.85546875" customWidth="1"/>
-    <col min="10767" max="10770" width="12.7109375" customWidth="1"/>
-    <col min="11009" max="11009" width="21.140625" customWidth="1"/>
-    <col min="11010" max="11010" width="12.5703125" customWidth="1"/>
-    <col min="11011" max="11015" width="12.7109375" customWidth="1"/>
-    <col min="11016" max="11016" width="12.85546875" customWidth="1"/>
-    <col min="11017" max="11018" width="12.7109375" customWidth="1"/>
-    <col min="11019" max="11022" width="12.85546875" customWidth="1"/>
-    <col min="11023" max="11026" width="12.7109375" customWidth="1"/>
-    <col min="11265" max="11265" width="21.140625" customWidth="1"/>
-    <col min="11266" max="11266" width="12.5703125" customWidth="1"/>
-    <col min="11267" max="11271" width="12.7109375" customWidth="1"/>
-    <col min="11272" max="11272" width="12.85546875" customWidth="1"/>
-    <col min="11273" max="11274" width="12.7109375" customWidth="1"/>
-    <col min="11275" max="11278" width="12.85546875" customWidth="1"/>
-    <col min="11279" max="11282" width="12.7109375" customWidth="1"/>
-    <col min="11521" max="11521" width="21.140625" customWidth="1"/>
-    <col min="11522" max="11522" width="12.5703125" customWidth="1"/>
-    <col min="11523" max="11527" width="12.7109375" customWidth="1"/>
-    <col min="11528" max="11528" width="12.85546875" customWidth="1"/>
-    <col min="11529" max="11530" width="12.7109375" customWidth="1"/>
-    <col min="11531" max="11534" width="12.85546875" customWidth="1"/>
-    <col min="11535" max="11538" width="12.7109375" customWidth="1"/>
-    <col min="11777" max="11777" width="21.140625" customWidth="1"/>
-    <col min="11778" max="11778" width="12.5703125" customWidth="1"/>
-    <col min="11779" max="11783" width="12.7109375" customWidth="1"/>
-    <col min="11784" max="11784" width="12.85546875" customWidth="1"/>
-    <col min="11785" max="11786" width="12.7109375" customWidth="1"/>
-    <col min="11787" max="11790" width="12.85546875" customWidth="1"/>
-    <col min="11791" max="11794" width="12.7109375" customWidth="1"/>
-    <col min="12033" max="12033" width="21.140625" customWidth="1"/>
-    <col min="12034" max="12034" width="12.5703125" customWidth="1"/>
-    <col min="12035" max="12039" width="12.7109375" customWidth="1"/>
-    <col min="12040" max="12040" width="12.85546875" customWidth="1"/>
-    <col min="12041" max="12042" width="12.7109375" customWidth="1"/>
-    <col min="12043" max="12046" width="12.85546875" customWidth="1"/>
-    <col min="12047" max="12050" width="12.7109375" customWidth="1"/>
-    <col min="12289" max="12289" width="21.140625" customWidth="1"/>
-    <col min="12290" max="12290" width="12.5703125" customWidth="1"/>
-    <col min="12291" max="12295" width="12.7109375" customWidth="1"/>
-    <col min="12296" max="12296" width="12.85546875" customWidth="1"/>
-    <col min="12297" max="12298" width="12.7109375" customWidth="1"/>
-    <col min="12299" max="12302" width="12.85546875" customWidth="1"/>
-    <col min="12303" max="12306" width="12.7109375" customWidth="1"/>
-    <col min="12545" max="12545" width="21.140625" customWidth="1"/>
-    <col min="12546" max="12546" width="12.5703125" customWidth="1"/>
-    <col min="12547" max="12551" width="12.7109375" customWidth="1"/>
-    <col min="12552" max="12552" width="12.85546875" customWidth="1"/>
-    <col min="12553" max="12554" width="12.7109375" customWidth="1"/>
-    <col min="12555" max="12558" width="12.85546875" customWidth="1"/>
-    <col min="12559" max="12562" width="12.7109375" customWidth="1"/>
-    <col min="12801" max="12801" width="21.140625" customWidth="1"/>
-    <col min="12802" max="12802" width="12.5703125" customWidth="1"/>
-    <col min="12803" max="12807" width="12.7109375" customWidth="1"/>
-    <col min="12808" max="12808" width="12.85546875" customWidth="1"/>
-    <col min="12809" max="12810" width="12.7109375" customWidth="1"/>
-    <col min="12811" max="12814" width="12.85546875" customWidth="1"/>
-    <col min="12815" max="12818" width="12.7109375" customWidth="1"/>
-    <col min="13057" max="13057" width="21.140625" customWidth="1"/>
-    <col min="13058" max="13058" width="12.5703125" customWidth="1"/>
-    <col min="13059" max="13063" width="12.7109375" customWidth="1"/>
-    <col min="13064" max="13064" width="12.85546875" customWidth="1"/>
-    <col min="13065" max="13066" width="12.7109375" customWidth="1"/>
-    <col min="13067" max="13070" width="12.85546875" customWidth="1"/>
-    <col min="13071" max="13074" width="12.7109375" customWidth="1"/>
-    <col min="13313" max="13313" width="21.140625" customWidth="1"/>
-    <col min="13314" max="13314" width="12.5703125" customWidth="1"/>
-    <col min="13315" max="13319" width="12.7109375" customWidth="1"/>
-    <col min="13320" max="13320" width="12.85546875" customWidth="1"/>
-    <col min="13321" max="13322" width="12.7109375" customWidth="1"/>
-    <col min="13323" max="13326" width="12.85546875" customWidth="1"/>
-    <col min="13327" max="13330" width="12.7109375" customWidth="1"/>
-    <col min="13569" max="13569" width="21.140625" customWidth="1"/>
-    <col min="13570" max="13570" width="12.5703125" customWidth="1"/>
-    <col min="13571" max="13575" width="12.7109375" customWidth="1"/>
-    <col min="13576" max="13576" width="12.85546875" customWidth="1"/>
-    <col min="13577" max="13578" width="12.7109375" customWidth="1"/>
-    <col min="13579" max="13582" width="12.85546875" customWidth="1"/>
-    <col min="13583" max="13586" width="12.7109375" customWidth="1"/>
-    <col min="13825" max="13825" width="21.140625" customWidth="1"/>
-    <col min="13826" max="13826" width="12.5703125" customWidth="1"/>
-    <col min="13827" max="13831" width="12.7109375" customWidth="1"/>
-    <col min="13832" max="13832" width="12.85546875" customWidth="1"/>
-    <col min="13833" max="13834" width="12.7109375" customWidth="1"/>
-    <col min="13835" max="13838" width="12.85546875" customWidth="1"/>
-    <col min="13839" max="13842" width="12.7109375" customWidth="1"/>
-    <col min="14081" max="14081" width="21.140625" customWidth="1"/>
-    <col min="14082" max="14082" width="12.5703125" customWidth="1"/>
-    <col min="14083" max="14087" width="12.7109375" customWidth="1"/>
-    <col min="14088" max="14088" width="12.85546875" customWidth="1"/>
-    <col min="14089" max="14090" width="12.7109375" customWidth="1"/>
-    <col min="14091" max="14094" width="12.85546875" customWidth="1"/>
-    <col min="14095" max="14098" width="12.7109375" customWidth="1"/>
-    <col min="14337" max="14337" width="21.140625" customWidth="1"/>
-    <col min="14338" max="14338" width="12.5703125" customWidth="1"/>
-    <col min="14339" max="14343" width="12.7109375" customWidth="1"/>
-    <col min="14344" max="14344" width="12.85546875" customWidth="1"/>
-    <col min="14345" max="14346" width="12.7109375" customWidth="1"/>
-    <col min="14347" max="14350" width="12.85546875" customWidth="1"/>
-    <col min="14351" max="14354" width="12.7109375" customWidth="1"/>
-    <col min="14593" max="14593" width="21.140625" customWidth="1"/>
-    <col min="14594" max="14594" width="12.5703125" customWidth="1"/>
-    <col min="14595" max="14599" width="12.7109375" customWidth="1"/>
-    <col min="14600" max="14600" width="12.85546875" customWidth="1"/>
-    <col min="14601" max="14602" width="12.7109375" customWidth="1"/>
-    <col min="14603" max="14606" width="12.85546875" customWidth="1"/>
-    <col min="14607" max="14610" width="12.7109375" customWidth="1"/>
-    <col min="14849" max="14849" width="21.140625" customWidth="1"/>
-    <col min="14850" max="14850" width="12.5703125" customWidth="1"/>
-    <col min="14851" max="14855" width="12.7109375" customWidth="1"/>
-    <col min="14856" max="14856" width="12.85546875" customWidth="1"/>
-    <col min="14857" max="14858" width="12.7109375" customWidth="1"/>
-    <col min="14859" max="14862" width="12.85546875" customWidth="1"/>
-    <col min="14863" max="14866" width="12.7109375" customWidth="1"/>
-    <col min="15105" max="15105" width="21.140625" customWidth="1"/>
-    <col min="15106" max="15106" width="12.5703125" customWidth="1"/>
-    <col min="15107" max="15111" width="12.7109375" customWidth="1"/>
-    <col min="15112" max="15112" width="12.85546875" customWidth="1"/>
-    <col min="15113" max="15114" width="12.7109375" customWidth="1"/>
-    <col min="15115" max="15118" width="12.85546875" customWidth="1"/>
-    <col min="15119" max="15122" width="12.7109375" customWidth="1"/>
-    <col min="15361" max="15361" width="21.140625" customWidth="1"/>
-    <col min="15362" max="15362" width="12.5703125" customWidth="1"/>
-    <col min="15363" max="15367" width="12.7109375" customWidth="1"/>
-    <col min="15368" max="15368" width="12.85546875" customWidth="1"/>
-    <col min="15369" max="15370" width="12.7109375" customWidth="1"/>
-    <col min="15371" max="15374" width="12.85546875" customWidth="1"/>
-    <col min="15375" max="15378" width="12.7109375" customWidth="1"/>
-    <col min="15617" max="15617" width="21.140625" customWidth="1"/>
-    <col min="15618" max="15618" width="12.5703125" customWidth="1"/>
-    <col min="15619" max="15623" width="12.7109375" customWidth="1"/>
-    <col min="15624" max="15624" width="12.85546875" customWidth="1"/>
-    <col min="15625" max="15626" width="12.7109375" customWidth="1"/>
-    <col min="15627" max="15630" width="12.85546875" customWidth="1"/>
-    <col min="15631" max="15634" width="12.7109375" customWidth="1"/>
-    <col min="15873" max="15873" width="21.140625" customWidth="1"/>
-    <col min="15874" max="15874" width="12.5703125" customWidth="1"/>
-    <col min="15875" max="15879" width="12.7109375" customWidth="1"/>
-    <col min="15880" max="15880" width="12.85546875" customWidth="1"/>
-    <col min="15881" max="15882" width="12.7109375" customWidth="1"/>
-    <col min="15883" max="15886" width="12.85546875" customWidth="1"/>
-    <col min="15887" max="15890" width="12.7109375" customWidth="1"/>
-    <col min="16129" max="16129" width="21.140625" customWidth="1"/>
-    <col min="16130" max="16130" width="12.5703125" customWidth="1"/>
-    <col min="16131" max="16135" width="12.7109375" customWidth="1"/>
-    <col min="16136" max="16136" width="12.85546875" customWidth="1"/>
-    <col min="16137" max="16138" width="12.7109375" customWidth="1"/>
-    <col min="16139" max="16142" width="12.85546875" customWidth="1"/>
-    <col min="16143" max="16146" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="9" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="14" width="12.81640625" customWidth="1"/>
+    <col min="15" max="18" width="12.7265625" customWidth="1"/>
+    <col min="257" max="257" width="21.1796875" customWidth="1"/>
+    <col min="258" max="258" width="12.54296875" customWidth="1"/>
+    <col min="259" max="263" width="12.7265625" customWidth="1"/>
+    <col min="264" max="264" width="12.81640625" customWidth="1"/>
+    <col min="265" max="266" width="12.7265625" customWidth="1"/>
+    <col min="267" max="270" width="12.81640625" customWidth="1"/>
+    <col min="271" max="274" width="12.7265625" customWidth="1"/>
+    <col min="513" max="513" width="21.1796875" customWidth="1"/>
+    <col min="514" max="514" width="12.54296875" customWidth="1"/>
+    <col min="515" max="519" width="12.7265625" customWidth="1"/>
+    <col min="520" max="520" width="12.81640625" customWidth="1"/>
+    <col min="521" max="522" width="12.7265625" customWidth="1"/>
+    <col min="523" max="526" width="12.81640625" customWidth="1"/>
+    <col min="527" max="530" width="12.7265625" customWidth="1"/>
+    <col min="769" max="769" width="21.1796875" customWidth="1"/>
+    <col min="770" max="770" width="12.54296875" customWidth="1"/>
+    <col min="771" max="775" width="12.7265625" customWidth="1"/>
+    <col min="776" max="776" width="12.81640625" customWidth="1"/>
+    <col min="777" max="778" width="12.7265625" customWidth="1"/>
+    <col min="779" max="782" width="12.81640625" customWidth="1"/>
+    <col min="783" max="786" width="12.7265625" customWidth="1"/>
+    <col min="1025" max="1025" width="21.1796875" customWidth="1"/>
+    <col min="1026" max="1026" width="12.54296875" customWidth="1"/>
+    <col min="1027" max="1031" width="12.7265625" customWidth="1"/>
+    <col min="1032" max="1032" width="12.81640625" customWidth="1"/>
+    <col min="1033" max="1034" width="12.7265625" customWidth="1"/>
+    <col min="1035" max="1038" width="12.81640625" customWidth="1"/>
+    <col min="1039" max="1042" width="12.7265625" customWidth="1"/>
+    <col min="1281" max="1281" width="21.1796875" customWidth="1"/>
+    <col min="1282" max="1282" width="12.54296875" customWidth="1"/>
+    <col min="1283" max="1287" width="12.7265625" customWidth="1"/>
+    <col min="1288" max="1288" width="12.81640625" customWidth="1"/>
+    <col min="1289" max="1290" width="12.7265625" customWidth="1"/>
+    <col min="1291" max="1294" width="12.81640625" customWidth="1"/>
+    <col min="1295" max="1298" width="12.7265625" customWidth="1"/>
+    <col min="1537" max="1537" width="21.1796875" customWidth="1"/>
+    <col min="1538" max="1538" width="12.54296875" customWidth="1"/>
+    <col min="1539" max="1543" width="12.7265625" customWidth="1"/>
+    <col min="1544" max="1544" width="12.81640625" customWidth="1"/>
+    <col min="1545" max="1546" width="12.7265625" customWidth="1"/>
+    <col min="1547" max="1550" width="12.81640625" customWidth="1"/>
+    <col min="1551" max="1554" width="12.7265625" customWidth="1"/>
+    <col min="1793" max="1793" width="21.1796875" customWidth="1"/>
+    <col min="1794" max="1794" width="12.54296875" customWidth="1"/>
+    <col min="1795" max="1799" width="12.7265625" customWidth="1"/>
+    <col min="1800" max="1800" width="12.81640625" customWidth="1"/>
+    <col min="1801" max="1802" width="12.7265625" customWidth="1"/>
+    <col min="1803" max="1806" width="12.81640625" customWidth="1"/>
+    <col min="1807" max="1810" width="12.7265625" customWidth="1"/>
+    <col min="2049" max="2049" width="21.1796875" customWidth="1"/>
+    <col min="2050" max="2050" width="12.54296875" customWidth="1"/>
+    <col min="2051" max="2055" width="12.7265625" customWidth="1"/>
+    <col min="2056" max="2056" width="12.81640625" customWidth="1"/>
+    <col min="2057" max="2058" width="12.7265625" customWidth="1"/>
+    <col min="2059" max="2062" width="12.81640625" customWidth="1"/>
+    <col min="2063" max="2066" width="12.7265625" customWidth="1"/>
+    <col min="2305" max="2305" width="21.1796875" customWidth="1"/>
+    <col min="2306" max="2306" width="12.54296875" customWidth="1"/>
+    <col min="2307" max="2311" width="12.7265625" customWidth="1"/>
+    <col min="2312" max="2312" width="12.81640625" customWidth="1"/>
+    <col min="2313" max="2314" width="12.7265625" customWidth="1"/>
+    <col min="2315" max="2318" width="12.81640625" customWidth="1"/>
+    <col min="2319" max="2322" width="12.7265625" customWidth="1"/>
+    <col min="2561" max="2561" width="21.1796875" customWidth="1"/>
+    <col min="2562" max="2562" width="12.54296875" customWidth="1"/>
+    <col min="2563" max="2567" width="12.7265625" customWidth="1"/>
+    <col min="2568" max="2568" width="12.81640625" customWidth="1"/>
+    <col min="2569" max="2570" width="12.7265625" customWidth="1"/>
+    <col min="2571" max="2574" width="12.81640625" customWidth="1"/>
+    <col min="2575" max="2578" width="12.7265625" customWidth="1"/>
+    <col min="2817" max="2817" width="21.1796875" customWidth="1"/>
+    <col min="2818" max="2818" width="12.54296875" customWidth="1"/>
+    <col min="2819" max="2823" width="12.7265625" customWidth="1"/>
+    <col min="2824" max="2824" width="12.81640625" customWidth="1"/>
+    <col min="2825" max="2826" width="12.7265625" customWidth="1"/>
+    <col min="2827" max="2830" width="12.81640625" customWidth="1"/>
+    <col min="2831" max="2834" width="12.7265625" customWidth="1"/>
+    <col min="3073" max="3073" width="21.1796875" customWidth="1"/>
+    <col min="3074" max="3074" width="12.54296875" customWidth="1"/>
+    <col min="3075" max="3079" width="12.7265625" customWidth="1"/>
+    <col min="3080" max="3080" width="12.81640625" customWidth="1"/>
+    <col min="3081" max="3082" width="12.7265625" customWidth="1"/>
+    <col min="3083" max="3086" width="12.81640625" customWidth="1"/>
+    <col min="3087" max="3090" width="12.7265625" customWidth="1"/>
+    <col min="3329" max="3329" width="21.1796875" customWidth="1"/>
+    <col min="3330" max="3330" width="12.54296875" customWidth="1"/>
+    <col min="3331" max="3335" width="12.7265625" customWidth="1"/>
+    <col min="3336" max="3336" width="12.81640625" customWidth="1"/>
+    <col min="3337" max="3338" width="12.7265625" customWidth="1"/>
+    <col min="3339" max="3342" width="12.81640625" customWidth="1"/>
+    <col min="3343" max="3346" width="12.7265625" customWidth="1"/>
+    <col min="3585" max="3585" width="21.1796875" customWidth="1"/>
+    <col min="3586" max="3586" width="12.54296875" customWidth="1"/>
+    <col min="3587" max="3591" width="12.7265625" customWidth="1"/>
+    <col min="3592" max="3592" width="12.81640625" customWidth="1"/>
+    <col min="3593" max="3594" width="12.7265625" customWidth="1"/>
+    <col min="3595" max="3598" width="12.81640625" customWidth="1"/>
+    <col min="3599" max="3602" width="12.7265625" customWidth="1"/>
+    <col min="3841" max="3841" width="21.1796875" customWidth="1"/>
+    <col min="3842" max="3842" width="12.54296875" customWidth="1"/>
+    <col min="3843" max="3847" width="12.7265625" customWidth="1"/>
+    <col min="3848" max="3848" width="12.81640625" customWidth="1"/>
+    <col min="3849" max="3850" width="12.7265625" customWidth="1"/>
+    <col min="3851" max="3854" width="12.81640625" customWidth="1"/>
+    <col min="3855" max="3858" width="12.7265625" customWidth="1"/>
+    <col min="4097" max="4097" width="21.1796875" customWidth="1"/>
+    <col min="4098" max="4098" width="12.54296875" customWidth="1"/>
+    <col min="4099" max="4103" width="12.7265625" customWidth="1"/>
+    <col min="4104" max="4104" width="12.81640625" customWidth="1"/>
+    <col min="4105" max="4106" width="12.7265625" customWidth="1"/>
+    <col min="4107" max="4110" width="12.81640625" customWidth="1"/>
+    <col min="4111" max="4114" width="12.7265625" customWidth="1"/>
+    <col min="4353" max="4353" width="21.1796875" customWidth="1"/>
+    <col min="4354" max="4354" width="12.54296875" customWidth="1"/>
+    <col min="4355" max="4359" width="12.7265625" customWidth="1"/>
+    <col min="4360" max="4360" width="12.81640625" customWidth="1"/>
+    <col min="4361" max="4362" width="12.7265625" customWidth="1"/>
+    <col min="4363" max="4366" width="12.81640625" customWidth="1"/>
+    <col min="4367" max="4370" width="12.7265625" customWidth="1"/>
+    <col min="4609" max="4609" width="21.1796875" customWidth="1"/>
+    <col min="4610" max="4610" width="12.54296875" customWidth="1"/>
+    <col min="4611" max="4615" width="12.7265625" customWidth="1"/>
+    <col min="4616" max="4616" width="12.81640625" customWidth="1"/>
+    <col min="4617" max="4618" width="12.7265625" customWidth="1"/>
+    <col min="4619" max="4622" width="12.81640625" customWidth="1"/>
+    <col min="4623" max="4626" width="12.7265625" customWidth="1"/>
+    <col min="4865" max="4865" width="21.1796875" customWidth="1"/>
+    <col min="4866" max="4866" width="12.54296875" customWidth="1"/>
+    <col min="4867" max="4871" width="12.7265625" customWidth="1"/>
+    <col min="4872" max="4872" width="12.81640625" customWidth="1"/>
+    <col min="4873" max="4874" width="12.7265625" customWidth="1"/>
+    <col min="4875" max="4878" width="12.81640625" customWidth="1"/>
+    <col min="4879" max="4882" width="12.7265625" customWidth="1"/>
+    <col min="5121" max="5121" width="21.1796875" customWidth="1"/>
+    <col min="5122" max="5122" width="12.54296875" customWidth="1"/>
+    <col min="5123" max="5127" width="12.7265625" customWidth="1"/>
+    <col min="5128" max="5128" width="12.81640625" customWidth="1"/>
+    <col min="5129" max="5130" width="12.7265625" customWidth="1"/>
+    <col min="5131" max="5134" width="12.81640625" customWidth="1"/>
+    <col min="5135" max="5138" width="12.7265625" customWidth="1"/>
+    <col min="5377" max="5377" width="21.1796875" customWidth="1"/>
+    <col min="5378" max="5378" width="12.54296875" customWidth="1"/>
+    <col min="5379" max="5383" width="12.7265625" customWidth="1"/>
+    <col min="5384" max="5384" width="12.81640625" customWidth="1"/>
+    <col min="5385" max="5386" width="12.7265625" customWidth="1"/>
+    <col min="5387" max="5390" width="12.81640625" customWidth="1"/>
+    <col min="5391" max="5394" width="12.7265625" customWidth="1"/>
+    <col min="5633" max="5633" width="21.1796875" customWidth="1"/>
+    <col min="5634" max="5634" width="12.54296875" customWidth="1"/>
+    <col min="5635" max="5639" width="12.7265625" customWidth="1"/>
+    <col min="5640" max="5640" width="12.81640625" customWidth="1"/>
+    <col min="5641" max="5642" width="12.7265625" customWidth="1"/>
+    <col min="5643" max="5646" width="12.81640625" customWidth="1"/>
+    <col min="5647" max="5650" width="12.7265625" customWidth="1"/>
+    <col min="5889" max="5889" width="21.1796875" customWidth="1"/>
+    <col min="5890" max="5890" width="12.54296875" customWidth="1"/>
+    <col min="5891" max="5895" width="12.7265625" customWidth="1"/>
+    <col min="5896" max="5896" width="12.81640625" customWidth="1"/>
+    <col min="5897" max="5898" width="12.7265625" customWidth="1"/>
+    <col min="5899" max="5902" width="12.81640625" customWidth="1"/>
+    <col min="5903" max="5906" width="12.7265625" customWidth="1"/>
+    <col min="6145" max="6145" width="21.1796875" customWidth="1"/>
+    <col min="6146" max="6146" width="12.54296875" customWidth="1"/>
+    <col min="6147" max="6151" width="12.7265625" customWidth="1"/>
+    <col min="6152" max="6152" width="12.81640625" customWidth="1"/>
+    <col min="6153" max="6154" width="12.7265625" customWidth="1"/>
+    <col min="6155" max="6158" width="12.81640625" customWidth="1"/>
+    <col min="6159" max="6162" width="12.7265625" customWidth="1"/>
+    <col min="6401" max="6401" width="21.1796875" customWidth="1"/>
+    <col min="6402" max="6402" width="12.54296875" customWidth="1"/>
+    <col min="6403" max="6407" width="12.7265625" customWidth="1"/>
+    <col min="6408" max="6408" width="12.81640625" customWidth="1"/>
+    <col min="6409" max="6410" width="12.7265625" customWidth="1"/>
+    <col min="6411" max="6414" width="12.81640625" customWidth="1"/>
+    <col min="6415" max="6418" width="12.7265625" customWidth="1"/>
+    <col min="6657" max="6657" width="21.1796875" customWidth="1"/>
+    <col min="6658" max="6658" width="12.54296875" customWidth="1"/>
+    <col min="6659" max="6663" width="12.7265625" customWidth="1"/>
+    <col min="6664" max="6664" width="12.81640625" customWidth="1"/>
+    <col min="6665" max="6666" width="12.7265625" customWidth="1"/>
+    <col min="6667" max="6670" width="12.81640625" customWidth="1"/>
+    <col min="6671" max="6674" width="12.7265625" customWidth="1"/>
+    <col min="6913" max="6913" width="21.1796875" customWidth="1"/>
+    <col min="6914" max="6914" width="12.54296875" customWidth="1"/>
+    <col min="6915" max="6919" width="12.7265625" customWidth="1"/>
+    <col min="6920" max="6920" width="12.81640625" customWidth="1"/>
+    <col min="6921" max="6922" width="12.7265625" customWidth="1"/>
+    <col min="6923" max="6926" width="12.81640625" customWidth="1"/>
+    <col min="6927" max="6930" width="12.7265625" customWidth="1"/>
+    <col min="7169" max="7169" width="21.1796875" customWidth="1"/>
+    <col min="7170" max="7170" width="12.54296875" customWidth="1"/>
+    <col min="7171" max="7175" width="12.7265625" customWidth="1"/>
+    <col min="7176" max="7176" width="12.81640625" customWidth="1"/>
+    <col min="7177" max="7178" width="12.7265625" customWidth="1"/>
+    <col min="7179" max="7182" width="12.81640625" customWidth="1"/>
+    <col min="7183" max="7186" width="12.7265625" customWidth="1"/>
+    <col min="7425" max="7425" width="21.1796875" customWidth="1"/>
+    <col min="7426" max="7426" width="12.54296875" customWidth="1"/>
+    <col min="7427" max="7431" width="12.7265625" customWidth="1"/>
+    <col min="7432" max="7432" width="12.81640625" customWidth="1"/>
+    <col min="7433" max="7434" width="12.7265625" customWidth="1"/>
+    <col min="7435" max="7438" width="12.81640625" customWidth="1"/>
+    <col min="7439" max="7442" width="12.7265625" customWidth="1"/>
+    <col min="7681" max="7681" width="21.1796875" customWidth="1"/>
+    <col min="7682" max="7682" width="12.54296875" customWidth="1"/>
+    <col min="7683" max="7687" width="12.7265625" customWidth="1"/>
+    <col min="7688" max="7688" width="12.81640625" customWidth="1"/>
+    <col min="7689" max="7690" width="12.7265625" customWidth="1"/>
+    <col min="7691" max="7694" width="12.81640625" customWidth="1"/>
+    <col min="7695" max="7698" width="12.7265625" customWidth="1"/>
+    <col min="7937" max="7937" width="21.1796875" customWidth="1"/>
+    <col min="7938" max="7938" width="12.54296875" customWidth="1"/>
+    <col min="7939" max="7943" width="12.7265625" customWidth="1"/>
+    <col min="7944" max="7944" width="12.81640625" customWidth="1"/>
+    <col min="7945" max="7946" width="12.7265625" customWidth="1"/>
+    <col min="7947" max="7950" width="12.81640625" customWidth="1"/>
+    <col min="7951" max="7954" width="12.7265625" customWidth="1"/>
+    <col min="8193" max="8193" width="21.1796875" customWidth="1"/>
+    <col min="8194" max="8194" width="12.54296875" customWidth="1"/>
+    <col min="8195" max="8199" width="12.7265625" customWidth="1"/>
+    <col min="8200" max="8200" width="12.81640625" customWidth="1"/>
+    <col min="8201" max="8202" width="12.7265625" customWidth="1"/>
+    <col min="8203" max="8206" width="12.81640625" customWidth="1"/>
+    <col min="8207" max="8210" width="12.7265625" customWidth="1"/>
+    <col min="8449" max="8449" width="21.1796875" customWidth="1"/>
+    <col min="8450" max="8450" width="12.54296875" customWidth="1"/>
+    <col min="8451" max="8455" width="12.7265625" customWidth="1"/>
+    <col min="8456" max="8456" width="12.81640625" customWidth="1"/>
+    <col min="8457" max="8458" width="12.7265625" customWidth="1"/>
+    <col min="8459" max="8462" width="12.81640625" customWidth="1"/>
+    <col min="8463" max="8466" width="12.7265625" customWidth="1"/>
+    <col min="8705" max="8705" width="21.1796875" customWidth="1"/>
+    <col min="8706" max="8706" width="12.54296875" customWidth="1"/>
+    <col min="8707" max="8711" width="12.7265625" customWidth="1"/>
+    <col min="8712" max="8712" width="12.81640625" customWidth="1"/>
+    <col min="8713" max="8714" width="12.7265625" customWidth="1"/>
+    <col min="8715" max="8718" width="12.81640625" customWidth="1"/>
+    <col min="8719" max="8722" width="12.7265625" customWidth="1"/>
+    <col min="8961" max="8961" width="21.1796875" customWidth="1"/>
+    <col min="8962" max="8962" width="12.54296875" customWidth="1"/>
+    <col min="8963" max="8967" width="12.7265625" customWidth="1"/>
+    <col min="8968" max="8968" width="12.81640625" customWidth="1"/>
+    <col min="8969" max="8970" width="12.7265625" customWidth="1"/>
+    <col min="8971" max="8974" width="12.81640625" customWidth="1"/>
+    <col min="8975" max="8978" width="12.7265625" customWidth="1"/>
+    <col min="9217" max="9217" width="21.1796875" customWidth="1"/>
+    <col min="9218" max="9218" width="12.54296875" customWidth="1"/>
+    <col min="9219" max="9223" width="12.7265625" customWidth="1"/>
+    <col min="9224" max="9224" width="12.81640625" customWidth="1"/>
+    <col min="9225" max="9226" width="12.7265625" customWidth="1"/>
+    <col min="9227" max="9230" width="12.81640625" customWidth="1"/>
+    <col min="9231" max="9234" width="12.7265625" customWidth="1"/>
+    <col min="9473" max="9473" width="21.1796875" customWidth="1"/>
+    <col min="9474" max="9474" width="12.54296875" customWidth="1"/>
+    <col min="9475" max="9479" width="12.7265625" customWidth="1"/>
+    <col min="9480" max="9480" width="12.81640625" customWidth="1"/>
+    <col min="9481" max="9482" width="12.7265625" customWidth="1"/>
+    <col min="9483" max="9486" width="12.81640625" customWidth="1"/>
+    <col min="9487" max="9490" width="12.7265625" customWidth="1"/>
+    <col min="9729" max="9729" width="21.1796875" customWidth="1"/>
+    <col min="9730" max="9730" width="12.54296875" customWidth="1"/>
+    <col min="9731" max="9735" width="12.7265625" customWidth="1"/>
+    <col min="9736" max="9736" width="12.81640625" customWidth="1"/>
+    <col min="9737" max="9738" width="12.7265625" customWidth="1"/>
+    <col min="9739" max="9742" width="12.81640625" customWidth="1"/>
+    <col min="9743" max="9746" width="12.7265625" customWidth="1"/>
+    <col min="9985" max="9985" width="21.1796875" customWidth="1"/>
+    <col min="9986" max="9986" width="12.54296875" customWidth="1"/>
+    <col min="9987" max="9991" width="12.7265625" customWidth="1"/>
+    <col min="9992" max="9992" width="12.81640625" customWidth="1"/>
+    <col min="9993" max="9994" width="12.7265625" customWidth="1"/>
+    <col min="9995" max="9998" width="12.81640625" customWidth="1"/>
+    <col min="9999" max="10002" width="12.7265625" customWidth="1"/>
+    <col min="10241" max="10241" width="21.1796875" customWidth="1"/>
+    <col min="10242" max="10242" width="12.54296875" customWidth="1"/>
+    <col min="10243" max="10247" width="12.7265625" customWidth="1"/>
+    <col min="10248" max="10248" width="12.81640625" customWidth="1"/>
+    <col min="10249" max="10250" width="12.7265625" customWidth="1"/>
+    <col min="10251" max="10254" width="12.81640625" customWidth="1"/>
+    <col min="10255" max="10258" width="12.7265625" customWidth="1"/>
+    <col min="10497" max="10497" width="21.1796875" customWidth="1"/>
+    <col min="10498" max="10498" width="12.54296875" customWidth="1"/>
+    <col min="10499" max="10503" width="12.7265625" customWidth="1"/>
+    <col min="10504" max="10504" width="12.81640625" customWidth="1"/>
+    <col min="10505" max="10506" width="12.7265625" customWidth="1"/>
+    <col min="10507" max="10510" width="12.81640625" customWidth="1"/>
+    <col min="10511" max="10514" width="12.7265625" customWidth="1"/>
+    <col min="10753" max="10753" width="21.1796875" customWidth="1"/>
+    <col min="10754" max="10754" width="12.54296875" customWidth="1"/>
+    <col min="10755" max="10759" width="12.7265625" customWidth="1"/>
+    <col min="10760" max="10760" width="12.81640625" customWidth="1"/>
+    <col min="10761" max="10762" width="12.7265625" customWidth="1"/>
+    <col min="10763" max="10766" width="12.81640625" customWidth="1"/>
+    <col min="10767" max="10770" width="12.7265625" customWidth="1"/>
+    <col min="11009" max="11009" width="21.1796875" customWidth="1"/>
+    <col min="11010" max="11010" width="12.54296875" customWidth="1"/>
+    <col min="11011" max="11015" width="12.7265625" customWidth="1"/>
+    <col min="11016" max="11016" width="12.81640625" customWidth="1"/>
+    <col min="11017" max="11018" width="12.7265625" customWidth="1"/>
+    <col min="11019" max="11022" width="12.81640625" customWidth="1"/>
+    <col min="11023" max="11026" width="12.7265625" customWidth="1"/>
+    <col min="11265" max="11265" width="21.1796875" customWidth="1"/>
+    <col min="11266" max="11266" width="12.54296875" customWidth="1"/>
+    <col min="11267" max="11271" width="12.7265625" customWidth="1"/>
+    <col min="11272" max="11272" width="12.81640625" customWidth="1"/>
+    <col min="11273" max="11274" width="12.7265625" customWidth="1"/>
+    <col min="11275" max="11278" width="12.81640625" customWidth="1"/>
+    <col min="11279" max="11282" width="12.7265625" customWidth="1"/>
+    <col min="11521" max="11521" width="21.1796875" customWidth="1"/>
+    <col min="11522" max="11522" width="12.54296875" customWidth="1"/>
+    <col min="11523" max="11527" width="12.7265625" customWidth="1"/>
+    <col min="11528" max="11528" width="12.81640625" customWidth="1"/>
+    <col min="11529" max="11530" width="12.7265625" customWidth="1"/>
+    <col min="11531" max="11534" width="12.81640625" customWidth="1"/>
+    <col min="11535" max="11538" width="12.7265625" customWidth="1"/>
+    <col min="11777" max="11777" width="21.1796875" customWidth="1"/>
+    <col min="11778" max="11778" width="12.54296875" customWidth="1"/>
+    <col min="11779" max="11783" width="12.7265625" customWidth="1"/>
+    <col min="11784" max="11784" width="12.81640625" customWidth="1"/>
+    <col min="11785" max="11786" width="12.7265625" customWidth="1"/>
+    <col min="11787" max="11790" width="12.81640625" customWidth="1"/>
+    <col min="11791" max="11794" width="12.7265625" customWidth="1"/>
+    <col min="12033" max="12033" width="21.1796875" customWidth="1"/>
+    <col min="12034" max="12034" width="12.54296875" customWidth="1"/>
+    <col min="12035" max="12039" width="12.7265625" customWidth="1"/>
+    <col min="12040" max="12040" width="12.81640625" customWidth="1"/>
+    <col min="12041" max="12042" width="12.7265625" customWidth="1"/>
+    <col min="12043" max="12046" width="12.81640625" customWidth="1"/>
+    <col min="12047" max="12050" width="12.7265625" customWidth="1"/>
+    <col min="12289" max="12289" width="21.1796875" customWidth="1"/>
+    <col min="12290" max="12290" width="12.54296875" customWidth="1"/>
+    <col min="12291" max="12295" width="12.7265625" customWidth="1"/>
+    <col min="12296" max="12296" width="12.81640625" customWidth="1"/>
+    <col min="12297" max="12298" width="12.7265625" customWidth="1"/>
+    <col min="12299" max="12302" width="12.81640625" customWidth="1"/>
+    <col min="12303" max="12306" width="12.7265625" customWidth="1"/>
+    <col min="12545" max="12545" width="21.1796875" customWidth="1"/>
+    <col min="12546" max="12546" width="12.54296875" customWidth="1"/>
+    <col min="12547" max="12551" width="12.7265625" customWidth="1"/>
+    <col min="12552" max="12552" width="12.81640625" customWidth="1"/>
+    <col min="12553" max="12554" width="12.7265625" customWidth="1"/>
+    <col min="12555" max="12558" width="12.81640625" customWidth="1"/>
+    <col min="12559" max="12562" width="12.7265625" customWidth="1"/>
+    <col min="12801" max="12801" width="21.1796875" customWidth="1"/>
+    <col min="12802" max="12802" width="12.54296875" customWidth="1"/>
+    <col min="12803" max="12807" width="12.7265625" customWidth="1"/>
+    <col min="12808" max="12808" width="12.81640625" customWidth="1"/>
+    <col min="12809" max="12810" width="12.7265625" customWidth="1"/>
+    <col min="12811" max="12814" width="12.81640625" customWidth="1"/>
+    <col min="12815" max="12818" width="12.7265625" customWidth="1"/>
+    <col min="13057" max="13057" width="21.1796875" customWidth="1"/>
+    <col min="13058" max="13058" width="12.54296875" customWidth="1"/>
+    <col min="13059" max="13063" width="12.7265625" customWidth="1"/>
+    <col min="13064" max="13064" width="12.81640625" customWidth="1"/>
+    <col min="13065" max="13066" width="12.7265625" customWidth="1"/>
+    <col min="13067" max="13070" width="12.81640625" customWidth="1"/>
+    <col min="13071" max="13074" width="12.7265625" customWidth="1"/>
+    <col min="13313" max="13313" width="21.1796875" customWidth="1"/>
+    <col min="13314" max="13314" width="12.54296875" customWidth="1"/>
+    <col min="13315" max="13319" width="12.7265625" customWidth="1"/>
+    <col min="13320" max="13320" width="12.81640625" customWidth="1"/>
+    <col min="13321" max="13322" width="12.7265625" customWidth="1"/>
+    <col min="13323" max="13326" width="12.81640625" customWidth="1"/>
+    <col min="13327" max="13330" width="12.7265625" customWidth="1"/>
+    <col min="13569" max="13569" width="21.1796875" customWidth="1"/>
+    <col min="13570" max="13570" width="12.54296875" customWidth="1"/>
+    <col min="13571" max="13575" width="12.7265625" customWidth="1"/>
+    <col min="13576" max="13576" width="12.81640625" customWidth="1"/>
+    <col min="13577" max="13578" width="12.7265625" customWidth="1"/>
+    <col min="13579" max="13582" width="12.81640625" customWidth="1"/>
+    <col min="13583" max="13586" width="12.7265625" customWidth="1"/>
+    <col min="13825" max="13825" width="21.1796875" customWidth="1"/>
+    <col min="13826" max="13826" width="12.54296875" customWidth="1"/>
+    <col min="13827" max="13831" width="12.7265625" customWidth="1"/>
+    <col min="13832" max="13832" width="12.81640625" customWidth="1"/>
+    <col min="13833" max="13834" width="12.7265625" customWidth="1"/>
+    <col min="13835" max="13838" width="12.81640625" customWidth="1"/>
+    <col min="13839" max="13842" width="12.7265625" customWidth="1"/>
+    <col min="14081" max="14081" width="21.1796875" customWidth="1"/>
+    <col min="14082" max="14082" width="12.54296875" customWidth="1"/>
+    <col min="14083" max="14087" width="12.7265625" customWidth="1"/>
+    <col min="14088" max="14088" width="12.81640625" customWidth="1"/>
+    <col min="14089" max="14090" width="12.7265625" customWidth="1"/>
+    <col min="14091" max="14094" width="12.81640625" customWidth="1"/>
+    <col min="14095" max="14098" width="12.7265625" customWidth="1"/>
+    <col min="14337" max="14337" width="21.1796875" customWidth="1"/>
+    <col min="14338" max="14338" width="12.54296875" customWidth="1"/>
+    <col min="14339" max="14343" width="12.7265625" customWidth="1"/>
+    <col min="14344" max="14344" width="12.81640625" customWidth="1"/>
+    <col min="14345" max="14346" width="12.7265625" customWidth="1"/>
+    <col min="14347" max="14350" width="12.81640625" customWidth="1"/>
+    <col min="14351" max="14354" width="12.7265625" customWidth="1"/>
+    <col min="14593" max="14593" width="21.1796875" customWidth="1"/>
+    <col min="14594" max="14594" width="12.54296875" customWidth="1"/>
+    <col min="14595" max="14599" width="12.7265625" customWidth="1"/>
+    <col min="14600" max="14600" width="12.81640625" customWidth="1"/>
+    <col min="14601" max="14602" width="12.7265625" customWidth="1"/>
+    <col min="14603" max="14606" width="12.81640625" customWidth="1"/>
+    <col min="14607" max="14610" width="12.7265625" customWidth="1"/>
+    <col min="14849" max="14849" width="21.1796875" customWidth="1"/>
+    <col min="14850" max="14850" width="12.54296875" customWidth="1"/>
+    <col min="14851" max="14855" width="12.7265625" customWidth="1"/>
+    <col min="14856" max="14856" width="12.81640625" customWidth="1"/>
+    <col min="14857" max="14858" width="12.7265625" customWidth="1"/>
+    <col min="14859" max="14862" width="12.81640625" customWidth="1"/>
+    <col min="14863" max="14866" width="12.7265625" customWidth="1"/>
+    <col min="15105" max="15105" width="21.1796875" customWidth="1"/>
+    <col min="15106" max="15106" width="12.54296875" customWidth="1"/>
+    <col min="15107" max="15111" width="12.7265625" customWidth="1"/>
+    <col min="15112" max="15112" width="12.81640625" customWidth="1"/>
+    <col min="15113" max="15114" width="12.7265625" customWidth="1"/>
+    <col min="15115" max="15118" width="12.81640625" customWidth="1"/>
+    <col min="15119" max="15122" width="12.7265625" customWidth="1"/>
+    <col min="15361" max="15361" width="21.1796875" customWidth="1"/>
+    <col min="15362" max="15362" width="12.54296875" customWidth="1"/>
+    <col min="15363" max="15367" width="12.7265625" customWidth="1"/>
+    <col min="15368" max="15368" width="12.81640625" customWidth="1"/>
+    <col min="15369" max="15370" width="12.7265625" customWidth="1"/>
+    <col min="15371" max="15374" width="12.81640625" customWidth="1"/>
+    <col min="15375" max="15378" width="12.7265625" customWidth="1"/>
+    <col min="15617" max="15617" width="21.1796875" customWidth="1"/>
+    <col min="15618" max="15618" width="12.54296875" customWidth="1"/>
+    <col min="15619" max="15623" width="12.7265625" customWidth="1"/>
+    <col min="15624" max="15624" width="12.81640625" customWidth="1"/>
+    <col min="15625" max="15626" width="12.7265625" customWidth="1"/>
+    <col min="15627" max="15630" width="12.81640625" customWidth="1"/>
+    <col min="15631" max="15634" width="12.7265625" customWidth="1"/>
+    <col min="15873" max="15873" width="21.1796875" customWidth="1"/>
+    <col min="15874" max="15874" width="12.54296875" customWidth="1"/>
+    <col min="15875" max="15879" width="12.7265625" customWidth="1"/>
+    <col min="15880" max="15880" width="12.81640625" customWidth="1"/>
+    <col min="15881" max="15882" width="12.7265625" customWidth="1"/>
+    <col min="15883" max="15886" width="12.81640625" customWidth="1"/>
+    <col min="15887" max="15890" width="12.7265625" customWidth="1"/>
+    <col min="16129" max="16129" width="21.1796875" customWidth="1"/>
+    <col min="16130" max="16130" width="12.54296875" customWidth="1"/>
+    <col min="16131" max="16135" width="12.7265625" customWidth="1"/>
+    <col min="16136" max="16136" width="12.81640625" customWidth="1"/>
+    <col min="16137" max="16138" width="12.7265625" customWidth="1"/>
+    <col min="16139" max="16142" width="12.81640625" customWidth="1"/>
+    <col min="16143" max="16146" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">

--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\AVLo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\AVLo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE0324-6536-42D8-B7FD-1FCDBFD8F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA3925-3EC3-4BAA-8E29-F5A0D5FA67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="550" windowWidth="15430" windowHeight="12970" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="고속철도 여객수송동향" sheetId="14" r:id="rId9"/>
     <sheet name="열차 여객수송인원" sheetId="15" r:id="rId10"/>
     <sheet name="rail" sheetId="13" r:id="rId11"/>
-    <sheet name="AVLo-passengers" sheetId="2" r:id="rId12"/>
-    <sheet name="AVLo-freight" sheetId="4" r:id="rId13"/>
+    <sheet name="US AVLo" sheetId="17" r:id="rId12"/>
+    <sheet name="AVLo-passengers" sheetId="2" r:id="rId13"/>
+    <sheet name="AVLo-freight" sheetId="4" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="497">
   <si>
     <t>AVLo Average Vehicle Loading</t>
   </si>
@@ -3256,7 +3257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3608,6 +3609,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4462,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -6080,6 +6082,1582 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8AABE4-9A7A-4FF9-8C38-25844DE09CA8}">
+  <dimension ref="A1:AK15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.67</v>
+      </c>
+      <c r="C2">
+        <v>1.67</v>
+      </c>
+      <c r="D2">
+        <v>1.67</v>
+      </c>
+      <c r="E2">
+        <v>1.67</v>
+      </c>
+      <c r="F2">
+        <v>1.67</v>
+      </c>
+      <c r="G2">
+        <v>1.67</v>
+      </c>
+      <c r="H2">
+        <v>1.67</v>
+      </c>
+      <c r="I2">
+        <v>1.67</v>
+      </c>
+      <c r="J2">
+        <v>1.67</v>
+      </c>
+      <c r="K2">
+        <v>1.67</v>
+      </c>
+      <c r="L2">
+        <v>1.67</v>
+      </c>
+      <c r="M2">
+        <v>1.67</v>
+      </c>
+      <c r="N2">
+        <v>1.67</v>
+      </c>
+      <c r="O2">
+        <v>1.67</v>
+      </c>
+      <c r="P2">
+        <v>1.67</v>
+      </c>
+      <c r="Q2">
+        <v>1.67</v>
+      </c>
+      <c r="R2">
+        <v>1.67</v>
+      </c>
+      <c r="S2">
+        <v>1.67</v>
+      </c>
+      <c r="T2">
+        <v>1.67</v>
+      </c>
+      <c r="U2">
+        <v>1.67</v>
+      </c>
+      <c r="V2">
+        <v>1.67</v>
+      </c>
+      <c r="W2">
+        <v>1.67</v>
+      </c>
+      <c r="X2">
+        <v>1.67</v>
+      </c>
+      <c r="Y2">
+        <v>1.67</v>
+      </c>
+      <c r="Z2">
+        <v>1.67</v>
+      </c>
+      <c r="AA2">
+        <v>1.67</v>
+      </c>
+      <c r="AB2">
+        <v>1.67</v>
+      </c>
+      <c r="AC2">
+        <v>1.67</v>
+      </c>
+      <c r="AD2">
+        <v>1.67</v>
+      </c>
+      <c r="AE2">
+        <v>1.67</v>
+      </c>
+      <c r="AF2">
+        <v>1.67</v>
+      </c>
+      <c r="AG2">
+        <v>1.67</v>
+      </c>
+      <c r="AH2">
+        <v>1.67</v>
+      </c>
+      <c r="AI2">
+        <v>1.67</v>
+      </c>
+      <c r="AJ2">
+        <v>1.67</v>
+      </c>
+      <c r="AK2">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="C3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="D3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="E3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="F3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="G3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="H3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="I3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="J3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="K3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="L3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="M3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="N3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="O3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="P3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="Q3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="R3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="S3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="T3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="U3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="V3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="W3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="X3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="Y3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="Z3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AA3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AB3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AC3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AD3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AE3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AF3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AG3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AH3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AI3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AJ3">
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AK3">
+        <v>21.196137258578663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="C4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="D4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="E4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="F4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="G4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="H4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="I4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="J4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="K4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="L4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="M4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="N4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="O4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="P4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Q4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="R4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="S4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="T4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="U4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="V4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="W4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="X4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Y4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Z4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AA4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AB4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AC4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AD4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AE4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AF4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AG4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AH4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AI4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AJ4">
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AK4">
+        <v>111.39416306433705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="C5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="D5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="E5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="F5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="G5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="H5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="I5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="J5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="K5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="L5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="M5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="N5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="O5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="P5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="Q5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="R5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="S5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="T5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="U5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="V5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="W5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="X5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="Y5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="Z5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AA5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AB5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AC5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AD5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AE5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AF5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AG5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AH5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AI5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AJ5">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AK5">
+        <v>486.56731685074101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="C7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="D7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="E7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="F7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="G7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="H7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="I7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="J7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="K7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="L7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="M7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="N7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="O7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="P7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="Q7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="R7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="S7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="T7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="U7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="V7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="W7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="X7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="Y7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="Z7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AA7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AB7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AC7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AD7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AE7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AF7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AG7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AH7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AI7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AJ7">
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AK7">
+        <v>1.2700756740871355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9">
+        <v>2018</v>
+      </c>
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9">
+        <v>2020</v>
+      </c>
+      <c r="G9">
+        <v>2021</v>
+      </c>
+      <c r="H9">
+        <v>2022</v>
+      </c>
+      <c r="I9">
+        <v>2023</v>
+      </c>
+      <c r="J9">
+        <v>2024</v>
+      </c>
+      <c r="K9">
+        <v>2025</v>
+      </c>
+      <c r="L9">
+        <v>2026</v>
+      </c>
+      <c r="M9">
+        <v>2027</v>
+      </c>
+      <c r="N9">
+        <v>2028</v>
+      </c>
+      <c r="O9">
+        <v>2029</v>
+      </c>
+      <c r="P9">
+        <v>2030</v>
+      </c>
+      <c r="Q9">
+        <v>2031</v>
+      </c>
+      <c r="R9">
+        <v>2032</v>
+      </c>
+      <c r="S9">
+        <v>2033</v>
+      </c>
+      <c r="T9">
+        <v>2034</v>
+      </c>
+      <c r="U9">
+        <v>2035</v>
+      </c>
+      <c r="V9">
+        <v>2036</v>
+      </c>
+      <c r="W9">
+        <v>2037</v>
+      </c>
+      <c r="X9">
+        <v>2038</v>
+      </c>
+      <c r="Y9">
+        <v>2039</v>
+      </c>
+      <c r="Z9">
+        <v>2040</v>
+      </c>
+      <c r="AA9">
+        <v>2041</v>
+      </c>
+      <c r="AB9">
+        <v>2042</v>
+      </c>
+      <c r="AC9">
+        <v>2043</v>
+      </c>
+      <c r="AD9">
+        <v>2044</v>
+      </c>
+      <c r="AE9">
+        <v>2045</v>
+      </c>
+      <c r="AF9">
+        <v>2046</v>
+      </c>
+      <c r="AG9">
+        <v>2047</v>
+      </c>
+      <c r="AH9">
+        <v>2048</v>
+      </c>
+      <c r="AI9">
+        <v>2049</v>
+      </c>
+      <c r="AJ9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>16</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>16</v>
+      </c>
+      <c r="T11">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+      <c r="W11">
+        <v>16</v>
+      </c>
+      <c r="X11">
+        <v>16</v>
+      </c>
+      <c r="Y11">
+        <v>16</v>
+      </c>
+      <c r="Z11">
+        <v>16</v>
+      </c>
+      <c r="AA11">
+        <v>16</v>
+      </c>
+      <c r="AB11">
+        <v>16</v>
+      </c>
+      <c r="AC11">
+        <v>16</v>
+      </c>
+      <c r="AD11">
+        <v>16</v>
+      </c>
+      <c r="AE11">
+        <v>16</v>
+      </c>
+      <c r="AF11">
+        <v>16</v>
+      </c>
+      <c r="AG11">
+        <v>16</v>
+      </c>
+      <c r="AH11">
+        <v>16</v>
+      </c>
+      <c r="AI11">
+        <v>16</v>
+      </c>
+      <c r="AJ11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="C12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="D12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="E12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="F12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="G12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="H12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="I12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="J12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="K12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="L12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="M12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="N12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="O12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="P12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="Q12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="R12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="S12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="T12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="U12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="V12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="W12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="X12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="Y12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="Z12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AA12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AB12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AC12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AD12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AE12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AF12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AG12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AH12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AI12">
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AJ12">
+        <v>41.989116133258747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="C13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="D13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="E13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="F13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="G13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="H13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="I13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="J13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="K13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="L13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="M13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="N13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="O13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="P13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="Q13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="R13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="S13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="T13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="U13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="V13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="W13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="X13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="Y13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="Z13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AA13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AB13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AC13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AD13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AE13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AF13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AG13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AH13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AI13">
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AJ13">
+        <v>3512.35916421195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="C14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="D14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="E14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="F14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="G14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="H14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="I14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="J14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="K14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="L14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="M14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="N14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="O14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="P14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="Q14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="R14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="S14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="T14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="U14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="V14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="W14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="X14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="Y14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="Z14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AA14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AB14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AC14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AD14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AE14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AF14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AG14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AH14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AI14">
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AJ14">
+        <v>1974.4736422180429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6087,7 +7665,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7072,15 +8650,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7782,109 +9360,144 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="147">
+        <f>'US AVLo'!$B$14</f>
         <v>1974.4736422180429</v>
       </c>
     </row>
